--- a/doc/分组名单-0626.xlsx
+++ b/doc/分组名单-0626.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>后台</t>
   </si>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>雷志杰</t>
+  </si>
+  <si>
+    <t>吴允劲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -166,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,6 +182,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -195,11 +210,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,23 +553,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -772,6 +790,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>13331281</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
       <c r="G12">
         <v>14331186</v>
       </c>
@@ -788,6 +812,13 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
